--- a/time sample.xlsx
+++ b/time sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Up Workshop Time Sheet</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Snet</t>
-  </si>
-  <si>
-    <t>CBC</t>
   </si>
   <si>
     <t>TSC-fix</t>
@@ -86,12 +83,21 @@
   <si>
     <t>Contractor signature</t>
   </si>
+  <si>
+    <t>CBC1</t>
+  </si>
+  <si>
+    <t>CBC2</t>
+  </si>
+  <si>
+    <t>CBC3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,11 +132,6 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Century Gothic"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
     </font>
     <font>
@@ -276,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,9 +303,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -321,46 +319,46 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,7 +704,7 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -729,21 +727,21 @@
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
@@ -769,42 +767,42 @@
     </row>
     <row r="3" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="29"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="30">
+        <v>8</v>
+      </c>
+      <c r="C4" s="35">
         <f>IF($D$2=0,"",$D$2-6)</f>
         <v>43409</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -821,21 +819,21 @@
         <v>1</v>
       </c>
       <c r="J4" s="9"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="30">
+        <v>9</v>
+      </c>
+      <c r="C5" s="35">
         <f>IF($D$2=0,"",$D$2-5)</f>
         <v>43410</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="7">
         <v>2</v>
       </c>
@@ -852,21 +850,21 @@
         <v>2</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="29"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="30">
+        <v>10</v>
+      </c>
+      <c r="C6" s="35">
         <f>IF($D$2=0,"",$D$2-4)</f>
         <v>43411</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="7">
         <v>3</v>
       </c>
@@ -883,21 +881,21 @@
         <v>3</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="30">
+        <v>11</v>
+      </c>
+      <c r="C7" s="35">
         <f>IF($D$2=0,"",$D$2-3)</f>
         <v>43412</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="7">
         <v>4</v>
       </c>
@@ -914,21 +912,21 @@
         <v>4</v>
       </c>
       <c r="J7" s="9"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="30">
+        <v>12</v>
+      </c>
+      <c r="C8" s="35">
         <f>IF($D$2=0,"",$D$2-2)</f>
         <v>43413</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="7">
         <v>5</v>
       </c>
@@ -945,21 +943,21 @@
         <v>5</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="30">
+        <v>13</v>
+      </c>
+      <c r="C9" s="35">
         <f>IF($D$2=0,"",$D$2-1)</f>
         <v>43414</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="7">
         <v>6</v>
       </c>
@@ -975,22 +973,22 @@
       <c r="I9" s="8">
         <v>6</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="30">
+        <v>14</v>
+      </c>
+      <c r="C10" s="35">
         <f>IF($D$2=0,"",$D$2)</f>
         <v>43415</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="7">
         <v>7</v>
       </c>
@@ -1006,49 +1004,49 @@
       <c r="I10" s="8">
         <v>7</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="15">
+        <v>16</v>
+      </c>
+      <c r="E11" s="14">
         <f t="shared" ref="E11:H11" si="0">SUM(E4:E10)</f>
         <v>28</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <f>SUM(I3:I10)</f>
         <v>28</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <f>SUM(E11:I11)</f>
         <v>140</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -1057,12 +1055,12 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1089,215 +1087,285 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="30">
+      <c r="C15" s="35">
         <f>IF($D$13=0,"",$D$13-6)</f>
         <v>43388</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="30">
+        <v>9</v>
+      </c>
+      <c r="C16" s="35">
         <f>IF($D$13=0,"",$D$13-5)</f>
         <v>43389</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2.15</v>
+      </c>
       <c r="J16" s="10"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="30">
+        <v>10</v>
+      </c>
+      <c r="C17" s="35">
         <f>IF($D$13=0,"",$D$13-4)</f>
         <v>43390</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3.15</v>
+      </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="30">
+        <v>11</v>
+      </c>
+      <c r="C18" s="35">
         <f>IF($D$13=0,"",$D$13-3)</f>
         <v>43391</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="7">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4.1500000000000004</v>
+      </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="30">
+        <v>12</v>
+      </c>
+      <c r="C19" s="35">
         <f>IF($D$13=0,"",$D$13-2)</f>
         <v>43392</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5.15</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5.15</v>
+      </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="30">
+        <v>13</v>
+      </c>
+      <c r="C20" s="35">
         <f>IF($D$13=0,"",$D$13-1)</f>
         <v>43393</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="F20" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="G20" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="I20" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="30">
+        <v>14</v>
+      </c>
+      <c r="C21" s="35">
         <f>IF($D$13=0,"",$D$13)</f>
         <v>43394</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="7">
+        <v>7.15</v>
+      </c>
+      <c r="F21" s="7">
+        <v>7.15</v>
+      </c>
+      <c r="G21" s="7">
+        <v>7.15</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7.15</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7.15</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="15">
+        <v>16</v>
+      </c>
+      <c r="E22" s="14">
         <f t="shared" ref="E22:H22" si="1">SUM(E15:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="15">
+        <v>29.049999999999997</v>
+      </c>
+      <c r="F22" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
+        <v>29.049999999999997</v>
+      </c>
+      <c r="G22" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
+        <v>29.049999999999997</v>
+      </c>
+      <c r="H22" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
+        <v>29.049999999999997</v>
+      </c>
+      <c r="I22" s="15">
         <f>SUM(I14:I21)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
+        <v>29.049999999999997</v>
+      </c>
+      <c r="J22" s="16">
         <f>SUM(E22:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+        <v>145.25</v>
+      </c>
+      <c r="K22" s="36"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1317,16 +1385,16 @@
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21" t="s">
-        <v>21</v>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1344,7 +1412,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="22"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1359,9 +1427,9 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
@@ -1375,8 +1443,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="21"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2551,12 +2619,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K5:L5"/>
@@ -2569,25 +2646,16 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0" header="0" footer="0"/>
